--- a/ONDERHANDEN TB/Boom & Dart, Albert de Vries/Brongegevens/Bomenlijst namen.xlsx
+++ b/ONDERHANDEN TB/Boom & Dart, Albert de Vries/Brongegevens/Bomenlijst namen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Documents\GitHub\DS\ONDERHANDEN TB\Boom &amp; Dart, Albert de Vries\Brongegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1F4082-3E48-440A-96F0-378FA1577A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6778099-D296-49CE-9119-72085CC391BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Laanbomen</t>
   </si>
@@ -39,10 +39,22 @@
     <t>Groep nr</t>
   </si>
   <si>
-    <t>Acer campestre 'test'</t>
+    <t>Fruit en Vruchtbomen</t>
   </si>
   <si>
-    <t>Malus 'test'</t>
+    <t>Acer cappadocicum 'test maatcode 1416'</t>
+  </si>
+  <si>
+    <t>Malus 'test tweede woord enkele quote'</t>
+  </si>
+  <si>
+    <t>Acer campestre 'test maatkode 1618'</t>
+  </si>
+  <si>
+    <t>Zelkova test 'Village Black'</t>
+  </si>
+  <si>
+    <t>Castanea sativa 'Geen laanboom'</t>
   </si>
 </sst>
 </file>
@@ -404,12 +416,12 @@
   <dimension ref="A1:C5091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,23 +455,41 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>

--- a/ONDERHANDEN TB/Boom & Dart, Albert de Vries/Brongegevens/Bomenlijst namen.xlsx
+++ b/ONDERHANDEN TB/Boom & Dart, Albert de Vries/Brongegevens/Bomenlijst namen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Documents\GitHub\DS\ONDERHANDEN TB\Boom &amp; Dart, Albert de Vries\Brongegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6778099-D296-49CE-9119-72085CC391BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57427CC-0668-4C51-8ADD-E0CC9DC6083A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Laanbomen</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Castanea sativa 'Geen laanboom'</t>
+  </si>
+  <si>
+    <t>Acer campestre 'Anny's Globe'</t>
+  </si>
+  <si>
+    <t>Acer campestre 'Hessel's Globe'</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:C5091"/>
+  <dimension ref="A1:G5091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +431,7 @@
     <col min="3" max="3" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -436,107 +442,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
